--- a/results/gnn_5_8_28_p3_k3/training_metrics_partial.xlsx
+++ b/results/gnn_5_8_28_p3_k3/training_metrics_partial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8908780097961426</v>
+        <v>0.7489310676401312</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6318</v>
+        <v>21045</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6704288053512574</v>
+        <v>0.6396655158563094</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6318</v>
+        <v>21045</v>
       </c>
     </row>
     <row r="4">
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6458708775043488</v>
+        <v>0.6267934979814471</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6318</v>
+        <v>21045</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6437886205374026</v>
+        <v>0.6613640445250052</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6528</v>
+        <v>34536</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.632919475144031</v>
+        <v>0.6521462524378742</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6528</v>
+        <v>34536</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6256604323200151</v>
+        <v>0.6465810992099621</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6528</v>
+        <v>34536</v>
       </c>
     </row>
     <row r="8">
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6208585021542568</v>
+        <v>0.6440909714610489</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6528</v>
+        <v>34536</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6300332613711087</v>
+        <v>0.6503557261684179</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6738</v>
+        <v>48808</v>
       </c>
     </row>
     <row r="10">
@@ -629,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6232724313466054</v>
+        <v>0.6450840478168108</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6738</v>
+        <v>48808</v>
       </c>
     </row>
     <row r="11">
@@ -648,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6184678572528767</v>
+        <v>0.6433246026488499</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -661,395 +661,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6738</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.6151799323423853</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6738</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.6253565853292292</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6948</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.6243568929758939</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6948</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.6230262626301158</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6948</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.6236523595723239</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6948</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.6270397773810795</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7158</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.6224649718829564</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7158</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.6213144042662212</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7158</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.6202919291598457</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7158</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.6181286357600113</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7367</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6195932534234277</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7367</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.6169581341332403</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7367</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.615334657759502</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7367</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.6158026069402694</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7577</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.6131126860777537</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7577</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.6146958400805791</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7577</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.6106916238864263</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7577</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.6157023388831342</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7787</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6103333948088474</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>7787</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.6088364427206946</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>100</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>7787</v>
+        <v>48808</v>
       </c>
     </row>
   </sheetData>
